--- a/apresentação/RepresentantesApresentação.xlsx
+++ b/apresentação/RepresentantesApresentação.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinid\OneDrive\Documentos\gitHub\Sprint2\Documentacao\apresentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/234fac80f67bd5e9/Área de Trabalho/SPTECH/projeto_sprint2/Documentacao/apresentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{025D8CEC-15BA-4983-A766-95ED03E2F321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{025D8CEC-15BA-4983-A766-95ED03E2F321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D556F282-ACE4-46BA-9D5A-8F4880C847E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D3782E4-4314-4BC0-A3DB-576EA2443583}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D3782E4-4314-4BC0-A3DB-576EA2443583}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -118,21 +118,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,13 +189,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,124 +530,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D0591F-4222-4382-9659-E11153EB4BA3}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="110.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="110.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -832,20 +842,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,14 +877,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43DC2EA5-EDE8-469A-A87C-C322B938F959}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C715BB9-576F-4EE1-84D9-334C5AD62106}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -888,4 +890,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43DC2EA5-EDE8-469A-A87C-C322B938F959}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>